--- a/src/Preliminary test selection/Results/step_4_input_param_simulation.xlsx
+++ b/src/Preliminary test selection/Results/step_4_input_param_simulation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uclouvain-my.sharepoint.com/personal/simon_boutry_uclouvain_be/Documents/DRAFT_ARTICLES/Statistical_framework_ensemble/Supplementary data/Preliminary test selection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boutrys\OneDrive - UCL\Documents\GitHub\excalibur_simulations\src\Preliminary test selection\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Sub region size</t>
   </si>
   <si>
-    <t>Min position in sub region</t>
-  </si>
-  <si>
     <t>Disease prevalence</t>
   </si>
   <si>
@@ -41,9 +38,6 @@
     <t>Cohort size</t>
   </si>
   <si>
-    <t>Weighting scheme</t>
-  </si>
-  <si>
     <t>Nbr repeat</t>
   </si>
   <si>
@@ -62,16 +56,10 @@
     <t>Negative percentage</t>
   </si>
   <si>
-    <t>OR type</t>
-  </si>
-  <si>
     <t>0.03</t>
   </si>
   <si>
     <t>0.5</t>
-  </si>
-  <si>
-    <t>Classical</t>
   </si>
   <si>
     <t>2.5</t>
@@ -407,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,8 +420,8 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>2</v>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -441,15 +429,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
+      <c r="B4" s="1">
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -457,7 +445,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -465,31 +453,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1">
-        <v>1000</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -497,7 +485,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -505,31 +493,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
         <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -538,6 +502,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007409292169A0CE49899A3C94DF95B8F0" ma:contentTypeVersion="12" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="a0f624728131bfe349f4149e8d4496d0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ba17bead-3880-444d-875c-f1ee7c933122" xmlns:ns4="0ab86ada-c1f4-4a4d-802d-5a86408d4209" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a9cec467e8fbcfd345a0ca3e7d5bfd88" ns3:_="" ns4:_="">
     <xsd:import namespace="ba17bead-3880-444d-875c-f1ee7c933122"/>
@@ -754,22 +733,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D7BEBC-7A2A-4C22-8314-9301E4B7500C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ba17bead-3880-444d-875c-f1ee7c933122"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0ab86ada-c1f4-4a4d-802d-5a86408d4209"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC52ADC5-5C18-474B-ADBB-99353A135359}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A93185D-C9F4-4B0D-B8E5-2277A06F7FC0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -786,29 +775,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC52ADC5-5C18-474B-ADBB-99353A135359}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D7BEBC-7A2A-4C22-8314-9301E4B7500C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ba17bead-3880-444d-875c-f1ee7c933122"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="0ab86ada-c1f4-4a4d-802d-5a86408d4209"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>